--- a/Question/FrameWorks/Flask/_I.xlsx
+++ b/Question/FrameWorks/Flask/_I.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zaman\Desktop\RP\Question\FrameWorks\Flask\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28B7CC0F-0AEB-48DE-B0F0-57F759B51287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD60020F-D5E6-41F1-922D-6723EC12CFE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -363,7 +363,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
